--- a/biology/Microbiologie/Gélose_tryptone_soja/Gélose_tryptone_soja.xlsx
+++ b/biology/Microbiologie/Gélose_tryptone_soja/Gélose_tryptone_soja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_tryptone_soja</t>
+          <t>Gélose_tryptone_soja</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La gélose tryptone soja aussi appelé gélose trypto-caséïne soja ou gélose trypticase soja est un milieu de culture utilisé en microbiologie pour des bactéries peu exigeantes aérobies et anaérobies[1]. Ce milieu existe aussi sans agar sous forme de bouillon comme milieu d'enrichissement. En gélose il possible de s'en servir tel quel par exemple pour des numérations, ou additionnée d'autres composants[2] et notamment de sang pour détecter les hémolyses dans certaines identifications. Cette gélose est par ailleurs utilisable pour pratiquer le test de CAMP.
-Ce milieu fait partie des milieux de culture soumis à la norme ISO 21149:2017[3]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La gélose tryptone soja aussi appelé gélose trypto-caséïne soja ou gélose trypticase soja est un milieu de culture utilisé en microbiologie pour des bactéries peu exigeantes aérobies et anaérobies. Ce milieu existe aussi sans agar sous forme de bouillon comme milieu d'enrichissement. En gélose il possible de s'en servir tel quel par exemple pour des numérations, ou additionnée d'autres composants et notamment de sang pour détecter les hémolyses dans certaines identifications. Cette gélose est par ailleurs utilisable pour pratiquer le test de CAMP.
+Ce milieu fait partie des milieux de culture soumis à la norme ISO 21149:2017
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_tryptone_soja</t>
+          <t>Gélose_tryptone_soja</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association peptone de caséine + peptone de soja permet une croissance optimale, qui est due à la synergie entre l'apport protidique de la caséine et l'apport glucidique du soja.
 Le chlorure de sodium (NaCl) maintient la pression osmotique.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_tryptone_soja</t>
+          <t>Gélose_tryptone_soja</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Formule</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en grammes par litre d'eau distillée) :
 Tryptone : 15 g
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_tryptone_soja</t>
+          <t>Gélose_tryptone_soja</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Lectures</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les streptocoques hémolytiques du groupe A apparaissent sous la forme de petites colonies grises translucides ou opaques entourées d'une zone d'hémolyse bêta. D'autre bactéries peuvent présenter le même type d'hémolyse : les Listeria, les staphylocoques hémolytiques Escherichia coli et les Pseudomonas. Il est donc nécessaire de pratiquer des colorations de Gram pour confirmer les résultats.
 Les streptocoques qui présentent les caractéristiques suivantes :
